--- a/excel/code/luaLogTrail.xlsx
+++ b/excel/code/luaLogTrail.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
   <si>
     <t>子脚本输出</t>
     <rPh sb="0" eb="1">
@@ -275,11 +275,30 @@
     <t>copyChiTiles</t>
   </si>
   <si>
-    <t>/Users/jiasy/Documents/develop/loho/Poker_paodekuai/trunk_poker_paodekuai/Client/src/</t>
+    <t>/Users/jiasy/Desktop/class/</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>/Users/jiasy/Desktop/class/</t>
+    <t>那些文件过滤</t>
+    <rPh sb="0" eb="2">
+      <t>na'xie</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>filterFiles</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LuaDebugjit</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LuaDebug</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Users/jiasy/Documents/develop/loho/Poker_paodekuai/trunk_poker_paodekuai/Client/src/app/</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -4085,59 +4104,59 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="1133" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1133" quotePrefix="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="2" xfId="1133" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="3" xfId="1133" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="2" xfId="1133" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="3" xfId="1133" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1133" quotePrefix="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1134">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -5662,7 +5681,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -5706,7 +5725,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -5728,11 +5747,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.75" defaultRowHeight="25" customHeight="1"/>
   <cols>
@@ -5785,11 +5802,11 @@
       <c r="B4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="37" t="str">
+      <c r="C4" s="30" t="str">
         <f ca="1">REPLACE(CELL("filename"),FIND("[",CELL("filename"))-1,99,)</f>
         <v>/Users/jiasy/Documents/sourceFrame/pyWorkFlow/excel/code</v>
       </c>
-      <c r="D4" s="38"/>
+      <c r="D4" s="31"/>
       <c r="E4" s="3"/>
       <c r="F4" s="1" t="s">
         <v>23</v>
@@ -5817,7 +5834,7 @@
         <f ca="1">C4&amp;"/../../test"</f>
         <v>/Users/jiasy/Documents/sourceFrame/pyWorkFlow/excel/code/../../test</v>
       </c>
-      <c r="D6" s="43"/>
+      <c r="D6" s="33"/>
       <c r="E6" s="3"/>
     </row>
     <row r="7" spans="2:11" ht="15">
@@ -5828,7 +5845,7 @@
         <f ca="1">C4&amp;"/../../temp"</f>
         <v>/Users/jiasy/Documents/sourceFrame/pyWorkFlow/excel/code/../../temp</v>
       </c>
-      <c r="D7" s="30"/>
+      <c r="D7" s="32"/>
       <c r="E7" s="3"/>
     </row>
     <row r="8" spans="2:11" ht="15">
@@ -5839,7 +5856,7 @@
         <f ca="1">C4&amp;"/../../pythonCode/ClientTools"</f>
         <v>/Users/jiasy/Documents/sourceFrame/pyWorkFlow/excel/code/../../pythonCode/ClientTools</v>
       </c>
-      <c r="D8" s="30"/>
+      <c r="D8" s="32"/>
       <c r="E8" s="3"/>
     </row>
     <row r="9" spans="2:11" ht="15">
@@ -5850,7 +5867,7 @@
         <f ca="1">C4&amp;"/../../pythonCode/ServerTools"</f>
         <v>/Users/jiasy/Documents/sourceFrame/pyWorkFlow/excel/code/../../pythonCode/ServerTools</v>
       </c>
-      <c r="D9" s="30"/>
+      <c r="D9" s="32"/>
       <c r="E9" s="3"/>
     </row>
     <row r="10" spans="2:11" ht="15">
@@ -5861,61 +5878,61 @@
         <f ca="1">C4&amp;"/../../pythonCode/CommonTools"</f>
         <v>/Users/jiasy/Documents/sourceFrame/pyWorkFlow/excel/code/../../pythonCode/CommonTools</v>
       </c>
-      <c r="D10" s="30"/>
+      <c r="D10" s="32"/>
       <c r="E10" s="3"/>
     </row>
     <row r="11" spans="2:11" ht="15">
       <c r="B11" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="27" t="str">
+      <c r="C11" s="44" t="str">
         <f ca="1">MID(CELL("filename"),SEARCH("[",CELL("filename"))+1, SEARCH("]",CELL("filename"))-SEARCH("[",CELL("filename"))-1)</f>
         <v>luaLogTrail.xlsx</v>
       </c>
-      <c r="D11" s="28"/>
+      <c r="D11" s="45"/>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="2:11" ht="15">
       <c r="B12" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="27" t="str">
+      <c r="C12" s="44" t="str">
         <f ca="1">MID(CELL("filename"),SEARCH("[",CELL("filename"))+1, SEARCH(".xlsx",CELL("filename"))-SEARCH("[",CELL("filename"))-1)</f>
         <v>luaLogTrail</v>
       </c>
-      <c r="D12" s="28"/>
+      <c r="D12" s="45"/>
       <c r="E12" s="3"/>
     </row>
     <row r="13" spans="2:11" ht="15">
       <c r="B13" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="37" t="str">
+      <c r="C13" s="30" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))</f>
         <v>pngTest</v>
       </c>
-      <c r="D13" s="38"/>
+      <c r="D13" s="31"/>
       <c r="E13" s="3"/>
     </row>
     <row r="14" spans="2:11" ht="15">
       <c r="B14" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="39" t="str">
+      <c r="C14" s="38" t="str">
         <f ca="1">C4&amp;"/"&amp;C11</f>
         <v>/Users/jiasy/Documents/sourceFrame/pyWorkFlow/excel/code/luaLogTrail.xlsx</v>
       </c>
-      <c r="D14" s="40"/>
+      <c r="D14" s="39"/>
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="2:11" ht="15">
       <c r="B15" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="31" t="s">
+      <c r="C15" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="32"/>
+      <c r="D15" s="41"/>
       <c r="E15" s="3"/>
       <c r="F15" s="1" t="s">
         <v>22</v>
@@ -5925,21 +5942,21 @@
       <c r="B16" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="31" t="s">
+      <c r="C16" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="32"/>
+      <c r="D16" s="41"/>
       <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:7" ht="15">
       <c r="B17" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="41" t="str">
+      <c r="C17" s="42" t="str">
         <f ca="1">"python "&amp;C5&amp;" -e "&amp;C14</f>
         <v>python /Users/jiasy/Documents/sourceFrame/pyWorkFlow/excel/code/../../pythonCode/base/ExcelWorkFlow.py -e /Users/jiasy/Documents/sourceFrame/pyWorkFlow/excel/code/luaLogTrail.xlsx</v>
       </c>
-      <c r="D17" s="42"/>
+      <c r="D17" s="43"/>
       <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:7" ht="20">
@@ -5962,10 +5979,10 @@
       <c r="B20" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="33" t="s">
+      <c r="C20" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="34"/>
+      <c r="D20" s="35"/>
       <c r="E20" s="18"/>
       <c r="F20" s="19"/>
     </row>
@@ -5976,11 +5993,11 @@
       <c r="B21" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="35" t="str">
+      <c r="C21" s="36" t="str">
         <f ca="1">C10&amp;"/Code/luaLogTrail.py"</f>
         <v>/Users/jiasy/Documents/sourceFrame/pyWorkFlow/excel/code/../../pythonCode/CommonTools/Code/luaLogTrail.py</v>
       </c>
-      <c r="D21" s="36"/>
+      <c r="D21" s="37"/>
       <c r="E21" s="18"/>
       <c r="F21" s="19"/>
     </row>
@@ -5993,14 +6010,12 @@
         <v>32</v>
       </c>
       <c r="D22" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="E22" s="44" t="s">
-        <v>44</v>
-      </c>
-      <c r="F22" s="45" t="s">
-        <v>43</v>
-      </c>
+      <c r="F22" s="28"/>
     </row>
     <row r="23" spans="1:7" ht="25" customHeight="1" thickBot="1">
       <c r="A23" s="24"/>
@@ -6052,24 +6067,40 @@
         <v>42</v>
       </c>
     </row>
+    <row r="31" spans="1:7" ht="25" customHeight="1" thickBot="1">
+      <c r="B31" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31" s="25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="25" customHeight="1" thickBot="1">
+      <c r="D32" s="25" t="s">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C15:D15"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C8:D8"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations disablePrompts="1" count="2">

--- a/excel/code/luaLogTrail.xlsx
+++ b/excel/code/luaLogTrail.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540"/>
   </bookViews>
   <sheets>
     <sheet name="pngTest" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
   <si>
     <t>子脚本输出</t>
     <rPh sb="0" eb="1">
@@ -226,13 +226,6 @@
     <t>脚本路径</t>
   </si>
   <si>
-    <t>键值对，转换成代码。原生代码比配置文件更安全</t>
-    <rPh sb="0" eb="1">
-      <t>li'yonggei'dingjing'xiangchuang'jianrong'qiying'sheduan'kou</t>
-    </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>代码所在文件夹路径</t>
     <rPh sb="0" eb="2">
       <t>dai'ma</t>
@@ -275,10 +268,6 @@
     <t>copyChiTiles</t>
   </si>
   <si>
-    <t>/Users/jiasy/Desktop/class/</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>那些文件过滤</t>
     <rPh sb="0" eb="2">
       <t>na'xie</t>
@@ -299,6 +288,51 @@
   </si>
   <si>
     <t>/Users/jiasy/Documents/develop/loho/Poker_paodekuai/trunk_poker_paodekuai/Client/src/app/</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>lua文件解析，代码进出添加输出</t>
+    <rPh sb="0" eb="1">
+      <t>li'yonggei'dingjing'xiangchuang'jianrong'qiying'sheduan'kou</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Users/jiasy/Desktop/class/luaTest/</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>'/Users/jiasy/Documents/develop/loho/Poker_paodekuai/trunk_poker_paodekuai/Client/src/app/</t>
+  </si>
+  <si>
+    <t>满足正则的过滤</t>
+    <rPh sb="0" eb="242">
+      <t>na'xie</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>regFilters</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>\s*Logger\.debug\(.*</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>\s*Logger\.error\(.*</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>\s*Logger\.info\(.*</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>\s*Logger\.dump\(.*</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>\s*Logger\.assert\(.*</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -5747,9 +5781,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.75" defaultRowHeight="25" customHeight="1"/>
   <cols>
@@ -5980,7 +6016,7 @@
         <v>28</v>
       </c>
       <c r="C20" s="34" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="D20" s="35"/>
       <c r="E20" s="18"/>
@@ -6004,29 +6040,31 @@
     <row r="22" spans="1:7" ht="25" customHeight="1" thickBot="1">
       <c r="A22" s="24"/>
       <c r="B22" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="23" t="s">
-        <v>32</v>
-      </c>
       <c r="D22" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="E22" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="E22" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="F22" s="28"/>
+      <c r="F22" s="28" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="23" spans="1:7" ht="25" customHeight="1" thickBot="1">
       <c r="A23" s="24"/>
       <c r="B23" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="25" t="s">
         <v>34</v>
-      </c>
-      <c r="C23" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="D23" s="25" t="s">
-        <v>35</v>
       </c>
       <c r="E23" s="18"/>
       <c r="F23" s="19"/>
@@ -6034,53 +6072,84 @@
     <row r="24" spans="1:7" ht="25" customHeight="1" thickBot="1">
       <c r="C24" s="1"/>
       <c r="D24" s="26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="25" customHeight="1" thickBot="1">
       <c r="D25" s="26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="25" customHeight="1" thickBot="1">
       <c r="D26" s="26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="25" customHeight="1" thickBot="1">
       <c r="D27" s="25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="25" customHeight="1" thickBot="1">
       <c r="D28" s="26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="25" customHeight="1" thickBot="1">
       <c r="D29" s="26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="25" customHeight="1" thickBot="1">
       <c r="D30" s="26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="25" customHeight="1" thickBot="1">
       <c r="B31" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="D31" s="25" t="s">
         <v>44</v>
-      </c>
-      <c r="C31" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="D31" s="25" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="25" customHeight="1" thickBot="1">
       <c r="D32" s="25" t="s">
-        <v>47</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" ht="25" customHeight="1" thickBot="1">
+      <c r="B33" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="D33" s="25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" ht="25" customHeight="1" thickBot="1">
+      <c r="D34" s="25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" ht="25" customHeight="1" thickBot="1">
+      <c r="D35" s="25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" ht="25" customHeight="1" thickBot="1">
+      <c r="D36" s="25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" ht="25" customHeight="1" thickBot="1">
+      <c r="D37" s="25" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/excel/code/luaLogTrail.xlsx
+++ b/excel/code/luaLogTrail.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="23540"/>
   </bookViews>
   <sheets>
     <sheet name="pngTest" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">pngTest!#REF!</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="58">
   <si>
     <t>子脚本输出</t>
     <rPh sb="0" eb="1">
@@ -306,7 +307,7 @@
   </si>
   <si>
     <t>满足正则的过滤</t>
-    <rPh sb="0" eb="242">
+    <rPh sb="0" eb="7">
       <t>na'xie</t>
     </rPh>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -316,23 +317,27 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>\s*Logger\.debug\(.*</t>
+    <t>^\s*Logger\.error\(.*</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>\s*Logger\.error\(.*</t>
+    <t>^\s*Logger\.debug\(.*</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>\s*Logger\.info\(.*</t>
+    <t>^\s*Logger\.info\(.*</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>\s*Logger\.dump\(.*</t>
+    <t>^\s*Logger\.dump\(.*</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>\s*Logger\.assert\(.*</t>
+    <t>^\s*Logger\.assert\(.*</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>^\s+(release_print)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -4140,55 +4145,55 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1133" quotePrefix="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="2" xfId="1133" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="3" xfId="1133" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="2" xfId="1133" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="3" xfId="1133" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -5715,7 +5720,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -5759,7 +5764,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -5784,7 +5789,7 @@
   <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.75" defaultRowHeight="25" customHeight="1"/>
@@ -5838,11 +5843,11 @@
       <c r="B4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="30" t="str">
+      <c r="C4" s="39" t="str">
         <f ca="1">REPLACE(CELL("filename"),FIND("[",CELL("filename"))-1,99,)</f>
         <v>/Users/jiasy/Documents/sourceFrame/pyWorkFlow/excel/code</v>
       </c>
-      <c r="D4" s="31"/>
+      <c r="D4" s="40"/>
       <c r="E4" s="3"/>
       <c r="F4" s="1" t="s">
         <v>23</v>
@@ -5852,11 +5857,11 @@
       <c r="B5" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="29" t="str">
+      <c r="C5" s="31" t="str">
         <f ca="1">C4&amp;"/../../pythonCode/base/ExcelWorkFlow.py"</f>
         <v>/Users/jiasy/Documents/sourceFrame/pyWorkFlow/excel/code/../../pythonCode/base/ExcelWorkFlow.py</v>
       </c>
-      <c r="D5" s="29"/>
+      <c r="D5" s="31"/>
       <c r="E5" s="3"/>
       <c r="F5" s="1" t="s">
         <v>24</v>
@@ -5866,18 +5871,18 @@
       <c r="B6" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="29" t="str">
+      <c r="C6" s="31" t="str">
         <f ca="1">C4&amp;"/../../test"</f>
         <v>/Users/jiasy/Documents/sourceFrame/pyWorkFlow/excel/code/../../test</v>
       </c>
-      <c r="D6" s="33"/>
+      <c r="D6" s="45"/>
       <c r="E6" s="3"/>
     </row>
     <row r="7" spans="2:11" ht="15">
       <c r="B7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="29" t="str">
+      <c r="C7" s="31" t="str">
         <f ca="1">C4&amp;"/../../temp"</f>
         <v>/Users/jiasy/Documents/sourceFrame/pyWorkFlow/excel/code/../../temp</v>
       </c>
@@ -5888,7 +5893,7 @@
       <c r="B8" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="29" t="str">
+      <c r="C8" s="31" t="str">
         <f ca="1">C4&amp;"/../../pythonCode/ClientTools"</f>
         <v>/Users/jiasy/Documents/sourceFrame/pyWorkFlow/excel/code/../../pythonCode/ClientTools</v>
       </c>
@@ -5899,7 +5904,7 @@
       <c r="B9" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="29" t="str">
+      <c r="C9" s="31" t="str">
         <f ca="1">C4&amp;"/../../pythonCode/ServerTools"</f>
         <v>/Users/jiasy/Documents/sourceFrame/pyWorkFlow/excel/code/../../pythonCode/ServerTools</v>
       </c>
@@ -5910,7 +5915,7 @@
       <c r="B10" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="29" t="str">
+      <c r="C10" s="31" t="str">
         <f ca="1">C4&amp;"/../../pythonCode/CommonTools"</f>
         <v>/Users/jiasy/Documents/sourceFrame/pyWorkFlow/excel/code/../../pythonCode/CommonTools</v>
       </c>
@@ -5921,54 +5926,54 @@
       <c r="B11" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="44" t="str">
+      <c r="C11" s="29" t="str">
         <f ca="1">MID(CELL("filename"),SEARCH("[",CELL("filename"))+1, SEARCH("]",CELL("filename"))-SEARCH("[",CELL("filename"))-1)</f>
         <v>luaLogTrail.xlsx</v>
       </c>
-      <c r="D11" s="45"/>
+      <c r="D11" s="30"/>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="2:11" ht="15">
       <c r="B12" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="44" t="str">
+      <c r="C12" s="29" t="str">
         <f ca="1">MID(CELL("filename"),SEARCH("[",CELL("filename"))+1, SEARCH(".xlsx",CELL("filename"))-SEARCH("[",CELL("filename"))-1)</f>
         <v>luaLogTrail</v>
       </c>
-      <c r="D12" s="45"/>
+      <c r="D12" s="30"/>
       <c r="E12" s="3"/>
     </row>
     <row r="13" spans="2:11" ht="15">
       <c r="B13" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="30" t="str">
+      <c r="C13" s="39" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))</f>
         <v>pngTest</v>
       </c>
-      <c r="D13" s="31"/>
+      <c r="D13" s="40"/>
       <c r="E13" s="3"/>
     </row>
     <row r="14" spans="2:11" ht="15">
       <c r="B14" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="38" t="str">
+      <c r="C14" s="41" t="str">
         <f ca="1">C4&amp;"/"&amp;C11</f>
         <v>/Users/jiasy/Documents/sourceFrame/pyWorkFlow/excel/code/luaLogTrail.xlsx</v>
       </c>
-      <c r="D14" s="39"/>
+      <c r="D14" s="42"/>
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="2:11" ht="15">
       <c r="B15" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="40" t="s">
+      <c r="C15" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="41"/>
+      <c r="D15" s="34"/>
       <c r="E15" s="3"/>
       <c r="F15" s="1" t="s">
         <v>22</v>
@@ -5978,21 +5983,21 @@
       <c r="B16" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="40" t="s">
+      <c r="C16" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="41"/>
+      <c r="D16" s="34"/>
       <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:7" ht="15">
       <c r="B17" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="42" t="str">
+      <c r="C17" s="43" t="str">
         <f ca="1">"python "&amp;C5&amp;" -e "&amp;C14</f>
         <v>python /Users/jiasy/Documents/sourceFrame/pyWorkFlow/excel/code/../../pythonCode/base/ExcelWorkFlow.py -e /Users/jiasy/Documents/sourceFrame/pyWorkFlow/excel/code/luaLogTrail.xlsx</v>
       </c>
-      <c r="D17" s="43"/>
+      <c r="D17" s="44"/>
       <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:7" ht="20">
@@ -6015,10 +6020,10 @@
       <c r="B20" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="34" t="s">
+      <c r="C20" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="D20" s="35"/>
+      <c r="D20" s="36"/>
       <c r="E20" s="18"/>
       <c r="F20" s="19"/>
     </row>
@@ -6029,11 +6034,11 @@
       <c r="B21" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="36" t="str">
+      <c r="C21" s="37" t="str">
         <f ca="1">C10&amp;"/Code/luaLogTrail.py"</f>
         <v>/Users/jiasy/Documents/sourceFrame/pyWorkFlow/excel/code/../../pythonCode/CommonTools/Code/luaLogTrail.py</v>
       </c>
-      <c r="D21" s="37"/>
+      <c r="D21" s="38"/>
       <c r="E21" s="18"/>
       <c r="F21" s="19"/>
     </row>
@@ -6121,7 +6126,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="2:4" ht="25" customHeight="1" thickBot="1">
+    <row r="33" spans="2:5" ht="25" customHeight="1" thickBot="1">
       <c r="B33" s="22" t="s">
         <v>50</v>
       </c>
@@ -6129,47 +6134,54 @@
         <v>51</v>
       </c>
       <c r="D33" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="E33" s="25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" ht="25" customHeight="1" thickBot="1">
+      <c r="D34" s="25"/>
+      <c r="E34" s="25" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="34" spans="2:4" ht="25" customHeight="1" thickBot="1">
-      <c r="D34" s="25" t="s">
-        <v>53</v>
+    <row r="35" spans="2:5" ht="25" customHeight="1" thickBot="1">
+      <c r="D35" s="25"/>
+      <c r="E35" s="25" t="s">
+        <v>54</v>
       </c>
     </row>
-    <row r="35" spans="2:4" ht="25" customHeight="1" thickBot="1">
-      <c r="D35" s="25" t="s">
-        <v>54</v>
+    <row r="36" spans="2:5" ht="25" customHeight="1" thickBot="1">
+      <c r="D36" s="25"/>
+      <c r="E36" s="25" t="s">
+        <v>55</v>
       </c>
     </row>
-    <row r="36" spans="2:4" ht="25" customHeight="1" thickBot="1">
-      <c r="D36" s="25" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" ht="25" customHeight="1" thickBot="1">
-      <c r="D37" s="25" t="s">
+    <row r="37" spans="2:5" ht="25" customHeight="1" thickBot="1">
+      <c r="D37" s="25"/>
+      <c r="E37" s="25" t="s">
         <v>56</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C8:D8"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C15:D15"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations disablePrompts="1" count="2">

--- a/excel/code/luaLogTrail.xlsx
+++ b/excel/code/luaLogTrail.xlsx
@@ -15,7 +15,7 @@
     <sheet name="pngTest" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">pngTest!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">pngTest!$A$20:$F$29</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <fileRecoveryPr repairLoad="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
   <si>
     <t>子脚本输出</t>
     <rPh sb="0" eb="1">
@@ -183,27 +183,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>全局的变量放到这里，下面的表格可以从这里取值</t>
-    <rPh sb="0" eb="22">
-      <t>zhe'li</t>
-    </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前所在的文件夹路径</t>
-    <rPh sb="0" eb="2">
-      <t>dang'qian</t>
-    </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>驱动工作流的脚本</t>
-    <rPh sb="0" eb="2">
-      <t>qu'dong</t>
-    </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>开关值</t>
     <rPh sb="0" eb="2">
       <t>kai'guan</t>
@@ -243,32 +222,6 @@
     <t>需要过滤掉的Log</t>
   </si>
   <si>
-    <t>/center_table_manager.py</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>addTable</t>
-  </si>
-  <si>
-    <t>__init__</t>
-  </si>
-  <si>
-    <t>initTableMap</t>
-  </si>
-  <si>
-    <t>/player/player.py</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>copyTiles</t>
-  </si>
-  <si>
-    <t>copyHandTiles</t>
-  </si>
-  <si>
-    <t>copyChiTiles</t>
-  </si>
-  <si>
     <t>那些文件过滤</t>
     <rPh sb="0" eb="2">
       <t>na'xie</t>
@@ -280,35 +233,9 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>LuaDebugjit</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>LuaDebug</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>/Users/jiasy/Documents/develop/loho/Poker_paodekuai/trunk_poker_paodekuai/Client/src/app/</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>lua文件解析，代码进出添加输出</t>
     <rPh sb="0" eb="1">
       <t>li'yonggei'dingjing'xiangchuang'jianrong'qiying'sheduan'kou</t>
-    </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>/Users/jiasy/Desktop/class/luaTest/</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>'/Users/jiasy/Documents/develop/loho/Poker_paodekuai/trunk_poker_paodekuai/Client/src/app/</t>
-  </si>
-  <si>
-    <t>满足正则的过滤</t>
-    <rPh sb="0" eb="7">
-      <t>na'xie</t>
     </rPh>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -317,27 +244,56 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>^\s*Logger\.error\(.*</t>
+    <t>满足正则表达式进行注释，括号为注释部分</t>
+    <rPh sb="0" eb="519">
+      <t>na'xie</t>
+    </rPh>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>^\s*Logger\.debug\(.*</t>
+    <t>你的代码所在文件夹</t>
+    <rPh sb="0" eb="1">
+      <t>ni'de</t>
+    </rPh>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>^\s*Logger\.info\(.*</t>
+    <t>要过滤的方法名</t>
+    <rPh sb="0" eb="75">
+      <t>yao'go</t>
+    </rPh>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>^\s*Logger\.dump\(.*</t>
+    <t>相对路径.lua</t>
+    <rPh sb="0" eb="183">
+      <t>mu'lu</t>
+    </rPh>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>^\s*Logger\.assert\(.*</t>
+    <t>相对路径.lua</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>^\s+(release_print)</t>
+    <t>^\s+(替换部分)</t>
+    <rPh sb="0" eb="1">
+      <t>ti'huan</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>相对路径2.lua</t>
+    <rPh sb="0" eb="1">
+      <t>mu'lu</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>相对路径1.lua</t>
+    <rPh sb="0" eb="1">
+      <t>mu'lu</t>
+    </rPh>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -345,7 +301,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="14">
+  <fonts count="16">
     <font>
       <sz val="15"/>
       <color indexed="8"/>
@@ -430,6 +386,18 @@
       <color indexed="8"/>
       <name val="Helvetica"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="兰亭黑-简 特黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="兰亭黑-简 中黑"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="20">
@@ -4078,7 +4046,7 @@
       <alignment vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -4195,6 +4163,15 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="1133" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="1133" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1134">
@@ -5786,11 +5763,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K37"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.75" defaultRowHeight="25" customHeight="1"/>
   <cols>
@@ -5806,10 +5781,10 @@
     <row r="1" spans="2:11" ht="21" customHeight="1" thickBot="1">
       <c r="E1" s="3"/>
       <c r="J1" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="2:11" ht="25" customHeight="1" thickBot="1">
@@ -5849,9 +5824,6 @@
       </c>
       <c r="D4" s="40"/>
       <c r="E4" s="3"/>
-      <c r="F4" s="1" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="5" spans="2:11" ht="15">
       <c r="B5" s="10" t="s">
@@ -5863,9 +5835,6 @@
       </c>
       <c r="D5" s="31"/>
       <c r="E5" s="3"/>
-      <c r="F5" s="1" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="6" spans="2:11" ht="15">
       <c r="B6" s="10" t="s">
@@ -5975,9 +5944,6 @@
       </c>
       <c r="D15" s="34"/>
       <c r="E15" s="3"/>
-      <c r="F15" s="1" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="16" spans="2:11" ht="15">
       <c r="B16" s="11" t="s">
@@ -6015,13 +5981,13 @@
     </row>
     <row r="20" spans="1:7" ht="25" customHeight="1" thickBot="1">
       <c r="A20" s="16" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C20" s="35" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="D20" s="36"/>
       <c r="E20" s="18"/>
@@ -6032,7 +5998,7 @@
         <v>3</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C21" s="37" t="str">
         <f ca="1">C10&amp;"/Code/luaLogTrail.py"</f>
@@ -6045,31 +6011,27 @@
     <row r="22" spans="1:7" ht="25" customHeight="1" thickBot="1">
       <c r="A22" s="24"/>
       <c r="B22" s="22" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
-      <c r="D22" s="25" t="s">
-        <v>46</v>
+      <c r="D22" s="48" t="s">
+        <v>36</v>
       </c>
-      <c r="E22" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="F22" s="28" t="s">
-        <v>49</v>
-      </c>
+      <c r="E22" s="27"/>
+      <c r="F22" s="28"/>
     </row>
     <row r="23" spans="1:7" ht="25" customHeight="1" thickBot="1">
       <c r="A23" s="24"/>
       <c r="B23" s="22" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="E23" s="18"/>
       <c r="F23" s="19"/>
@@ -6077,92 +6039,54 @@
     <row r="24" spans="1:7" ht="25" customHeight="1" thickBot="1">
       <c r="C24" s="1"/>
       <c r="D24" s="26" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="25" customHeight="1" thickBot="1">
-      <c r="D25" s="26" t="s">
-        <v>36</v>
+      <c r="C25" s="1"/>
+      <c r="D25" s="25" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="25" customHeight="1" thickBot="1">
+      <c r="C26" s="1"/>
       <c r="D26" s="26" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="25" customHeight="1" thickBot="1">
+      <c r="B27" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>32</v>
+      </c>
       <c r="D27" s="25" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="25" customHeight="1" thickBot="1">
-      <c r="D28" s="26" t="s">
+      <c r="D28" s="25" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="25" customHeight="1" thickBot="1">
-      <c r="D29" s="26" t="s">
+      <c r="B29" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" s="25" t="s">
         <v>40</v>
       </c>
+      <c r="E29" s="46"/>
     </row>
-    <row r="30" spans="1:7" ht="25" customHeight="1" thickBot="1">
-      <c r="D30" s="26" t="s">
-        <v>41</v>
-      </c>
+    <row r="30" spans="1:7" ht="25" customHeight="1">
+      <c r="E30" s="46"/>
     </row>
-    <row r="31" spans="1:7" ht="25" customHeight="1" thickBot="1">
-      <c r="B31" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="C31" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="D31" s="25" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="25" customHeight="1" thickBot="1">
-      <c r="D32" s="25" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" ht="25" customHeight="1" thickBot="1">
-      <c r="B33" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="C33" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="D33" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="E33" s="25" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" ht="25" customHeight="1" thickBot="1">
-      <c r="D34" s="25"/>
-      <c r="E34" s="25" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" ht="25" customHeight="1" thickBot="1">
-      <c r="D35" s="25"/>
-      <c r="E35" s="25" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" ht="25" customHeight="1" thickBot="1">
-      <c r="D36" s="25"/>
-      <c r="E36" s="25" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" ht="25" customHeight="1" thickBot="1">
-      <c r="D37" s="25"/>
-      <c r="E37" s="25" t="s">
-        <v>56</v>
-      </c>
+    <row r="31" spans="1:7" ht="25" customHeight="1">
+      <c r="E31" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="16">

--- a/excel/code/luaLogTrail.xlsx
+++ b/excel/code/luaLogTrail.xlsx
@@ -245,7 +245,7 @@
   </si>
   <si>
     <t>满足正则表达式进行注释，括号为注释部分</t>
-    <rPh sb="0" eb="519">
+    <rPh sb="0" eb="19">
       <t>na'xie</t>
     </rPh>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -259,14 +259,14 @@
   </si>
   <si>
     <t>要过滤的方法名</t>
-    <rPh sb="0" eb="75">
+    <rPh sb="0" eb="7">
       <t>yao'go</t>
     </rPh>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>相对路径.lua</t>
-    <rPh sb="0" eb="183">
+    <rPh sb="0" eb="8">
       <t>mu'lu</t>
     </rPh>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -4113,65 +4113,65 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1133" quotePrefix="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="1133" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="1133" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="2" xfId="1133" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="3" xfId="1133" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="2" xfId="1133" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="3" xfId="1133" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="1133" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="1133" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1134">
@@ -5697,7 +5697,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -5741,7 +5741,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -5818,110 +5818,110 @@
       <c r="B4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="39" t="str">
+      <c r="C4" s="33" t="str">
         <f ca="1">REPLACE(CELL("filename"),FIND("[",CELL("filename"))-1,99,)</f>
         <v>/Users/jiasy/Documents/sourceFrame/pyWorkFlow/excel/code</v>
       </c>
-      <c r="D4" s="40"/>
+      <c r="D4" s="34"/>
       <c r="E4" s="3"/>
     </row>
     <row r="5" spans="2:11" ht="15">
       <c r="B5" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="31" t="str">
+      <c r="C5" s="32" t="str">
         <f ca="1">C4&amp;"/../../pythonCode/base/ExcelWorkFlow.py"</f>
         <v>/Users/jiasy/Documents/sourceFrame/pyWorkFlow/excel/code/../../pythonCode/base/ExcelWorkFlow.py</v>
       </c>
-      <c r="D5" s="31"/>
+      <c r="D5" s="32"/>
       <c r="E5" s="3"/>
     </row>
     <row r="6" spans="2:11" ht="15">
       <c r="B6" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="31" t="str">
+      <c r="C6" s="32" t="str">
         <f ca="1">C4&amp;"/../../test"</f>
         <v>/Users/jiasy/Documents/sourceFrame/pyWorkFlow/excel/code/../../test</v>
       </c>
-      <c r="D6" s="45"/>
+      <c r="D6" s="36"/>
       <c r="E6" s="3"/>
     </row>
     <row r="7" spans="2:11" ht="15">
       <c r="B7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="31" t="str">
+      <c r="C7" s="32" t="str">
         <f ca="1">C4&amp;"/../../temp"</f>
         <v>/Users/jiasy/Documents/sourceFrame/pyWorkFlow/excel/code/../../temp</v>
       </c>
-      <c r="D7" s="32"/>
+      <c r="D7" s="35"/>
       <c r="E7" s="3"/>
     </row>
     <row r="8" spans="2:11" ht="15">
       <c r="B8" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="31" t="str">
+      <c r="C8" s="32" t="str">
         <f ca="1">C4&amp;"/../../pythonCode/ClientTools"</f>
         <v>/Users/jiasy/Documents/sourceFrame/pyWorkFlow/excel/code/../../pythonCode/ClientTools</v>
       </c>
-      <c r="D8" s="32"/>
+      <c r="D8" s="35"/>
       <c r="E8" s="3"/>
     </row>
     <row r="9" spans="2:11" ht="15">
       <c r="B9" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="31" t="str">
+      <c r="C9" s="32" t="str">
         <f ca="1">C4&amp;"/../../pythonCode/ServerTools"</f>
         <v>/Users/jiasy/Documents/sourceFrame/pyWorkFlow/excel/code/../../pythonCode/ServerTools</v>
       </c>
-      <c r="D9" s="32"/>
+      <c r="D9" s="35"/>
       <c r="E9" s="3"/>
     </row>
     <row r="10" spans="2:11" ht="15">
       <c r="B10" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="31" t="str">
+      <c r="C10" s="32" t="str">
         <f ca="1">C4&amp;"/../../pythonCode/CommonTools"</f>
         <v>/Users/jiasy/Documents/sourceFrame/pyWorkFlow/excel/code/../../pythonCode/CommonTools</v>
       </c>
-      <c r="D10" s="32"/>
+      <c r="D10" s="35"/>
       <c r="E10" s="3"/>
     </row>
     <row r="11" spans="2:11" ht="15">
       <c r="B11" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="29" t="str">
+      <c r="C11" s="47" t="str">
         <f ca="1">MID(CELL("filename"),SEARCH("[",CELL("filename"))+1, SEARCH("]",CELL("filename"))-SEARCH("[",CELL("filename"))-1)</f>
         <v>luaLogTrail.xlsx</v>
       </c>
-      <c r="D11" s="30"/>
+      <c r="D11" s="48"/>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="2:11" ht="15">
       <c r="B12" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="29" t="str">
+      <c r="C12" s="47" t="str">
         <f ca="1">MID(CELL("filename"),SEARCH("[",CELL("filename"))+1, SEARCH(".xlsx",CELL("filename"))-SEARCH("[",CELL("filename"))-1)</f>
         <v>luaLogTrail</v>
       </c>
-      <c r="D12" s="30"/>
+      <c r="D12" s="48"/>
       <c r="E12" s="3"/>
     </row>
     <row r="13" spans="2:11" ht="15">
       <c r="B13" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="39" t="str">
+      <c r="C13" s="33" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))</f>
         <v>pngTest</v>
       </c>
-      <c r="D13" s="40"/>
+      <c r="D13" s="34"/>
       <c r="E13" s="3"/>
     </row>
     <row r="14" spans="2:11" ht="15">
@@ -5939,31 +5939,31 @@
       <c r="B15" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="33" t="s">
+      <c r="C15" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="34"/>
+      <c r="D15" s="44"/>
       <c r="E15" s="3"/>
     </row>
     <row r="16" spans="2:11" ht="15">
       <c r="B16" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="33" t="s">
+      <c r="C16" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="34"/>
+      <c r="D16" s="44"/>
       <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:7" ht="15">
       <c r="B17" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="43" t="str">
+      <c r="C17" s="45" t="str">
         <f ca="1">"python "&amp;C5&amp;" -e "&amp;C14</f>
         <v>python /Users/jiasy/Documents/sourceFrame/pyWorkFlow/excel/code/../../pythonCode/base/ExcelWorkFlow.py -e /Users/jiasy/Documents/sourceFrame/pyWorkFlow/excel/code/luaLogTrail.xlsx</v>
       </c>
-      <c r="D17" s="44"/>
+      <c r="D17" s="46"/>
       <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:7" ht="20">
@@ -5986,10 +5986,10 @@
       <c r="B20" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="35" t="s">
+      <c r="C20" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="36"/>
+      <c r="D20" s="38"/>
       <c r="E20" s="18"/>
       <c r="F20" s="19"/>
     </row>
@@ -6000,11 +6000,11 @@
       <c r="B21" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="37" t="str">
+      <c r="C21" s="39" t="str">
         <f ca="1">C10&amp;"/Code/luaLogTrail.py"</f>
         <v>/Users/jiasy/Documents/sourceFrame/pyWorkFlow/excel/code/../../pythonCode/CommonTools/Code/luaLogTrail.py</v>
       </c>
-      <c r="D21" s="38"/>
+      <c r="D21" s="40"/>
       <c r="E21" s="18"/>
       <c r="F21" s="19"/>
     </row>
@@ -6016,7 +6016,7 @@
       <c r="C22" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="48" t="s">
+      <c r="D22" s="31" t="s">
         <v>36</v>
       </c>
       <c r="E22" s="27"/>
@@ -6071,7 +6071,7 @@
       </c>
     </row>
     <row r="29" spans="1:7" ht="25" customHeight="1" thickBot="1">
-      <c r="B29" s="47" t="s">
+      <c r="B29" s="30" t="s">
         <v>35</v>
       </c>
       <c r="C29" s="23" t="s">
@@ -6080,32 +6080,32 @@
       <c r="D29" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="E29" s="46"/>
+      <c r="E29" s="29"/>
     </row>
     <row r="30" spans="1:7" ht="25" customHeight="1">
-      <c r="E30" s="46"/>
+      <c r="E30" s="29"/>
     </row>
     <row r="31" spans="1:7" ht="25" customHeight="1">
-      <c r="E31" s="46"/>
+      <c r="E31" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C15:D15"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C8:D8"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations disablePrompts="1" count="2">
